--- a/teaching/traditional_assets/database/data/denmark/denmark_retail_online.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_retail_online.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.135</v>
+        <v>-0.012</v>
       </c>
       <c r="G2">
-        <v>-0.2085049538016253</v>
+        <v>-0.01147982062780269</v>
       </c>
       <c r="H2">
-        <v>-0.2574307024379383</v>
+        <v>-0.08370702541106129</v>
       </c>
       <c r="I2">
-        <v>-0.3592619392185238</v>
+        <v>-0.129745889387145</v>
       </c>
       <c r="J2">
-        <v>-0.3592619392185238</v>
+        <v>-0.129745889387145</v>
       </c>
       <c r="K2">
-        <v>-8.845000000000001</v>
+        <v>-5.464</v>
       </c>
       <c r="L2">
-        <v>-0.2461594122230881</v>
+        <v>-0.1633482810164425</v>
       </c>
       <c r="M2">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.003642384105960265</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.009949123798756359</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.469</v>
+        <v>4.39</v>
       </c>
       <c r="V2">
-        <v>0.1849751655629139</v>
+        <v>0.3395204949729311</v>
       </c>
       <c r="W2">
-        <v>-0.3254996750081248</v>
+        <v>-0.9956823318525445</v>
       </c>
       <c r="X2">
-        <v>0.08827751240883315</v>
+        <v>0.2238688589878753</v>
       </c>
       <c r="Y2">
-        <v>-0.413777187416958</v>
+        <v>-1.21955119084042</v>
       </c>
       <c r="Z2">
-        <v>1.596764875794339</v>
+        <v>2.445711778898881</v>
       </c>
       <c r="AA2">
-        <v>-0.580428358460567</v>
+        <v>-0.4163962310251287</v>
       </c>
       <c r="AB2">
-        <v>0.08313328968799241</v>
+        <v>0.06990772922347488</v>
       </c>
       <c r="AC2">
-        <v>-0.6649018584606281</v>
+        <v>-0.4863039602486036</v>
       </c>
       <c r="AD2">
-        <v>29.783</v>
+        <v>30.639</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>29.783</v>
+        <v>30.639</v>
       </c>
       <c r="AG2">
-        <v>25.314</v>
+        <v>26.249</v>
       </c>
       <c r="AH2">
-        <v>0.5521198301911278</v>
+        <v>0.7032293603250017</v>
       </c>
       <c r="AI2">
-        <v>0.7864951938312031</v>
+        <v>0.9773517496570864</v>
       </c>
       <c r="AJ2">
-        <v>0.511662691514735</v>
+        <v>0.6699762627938437</v>
       </c>
       <c r="AK2">
-        <v>0.7579268840384442</v>
+        <v>0.9736637115620015</v>
       </c>
       <c r="AL2">
-        <v>2.631</v>
+        <v>1.819</v>
       </c>
       <c r="AM2">
-        <v>2.321</v>
+        <v>1.485</v>
       </c>
       <c r="AN2">
-        <v>-2.303402938901779</v>
+        <v>-5.264432989690722</v>
       </c>
       <c r="AO2">
-        <v>-4.906499429874573</v>
+        <v>-2.385926333150083</v>
       </c>
       <c r="AP2">
-        <v>-1.957772621809745</v>
+        <v>-4.510137457044674</v>
       </c>
       <c r="AQ2">
-        <v>-5.561826798793623</v>
+        <v>-2.922558922558923</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MenuPay AB (NGM:MENU B)</t>
+          <t>Lauritz.com Group A/S (OM:LAUR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,23 +718,26 @@
           <t>Retail (Online)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.012</v>
+      </c>
       <c r="G3">
-        <v>0.08597285067873303</v>
+        <v>0.0003095975232198145</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-0.05572755417956657</v>
       </c>
       <c r="I3">
-        <v>-2.147058823529412</v>
+        <v>-0.1018575851393189</v>
       </c>
       <c r="J3">
-        <v>-2.147058823529412</v>
+        <v>-0.1018575851393189</v>
       </c>
       <c r="K3">
-        <v>-0.945</v>
+        <v>-4.6</v>
       </c>
       <c r="L3">
-        <v>-2.138009049773756</v>
+        <v>-0.1424148606811146</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,67 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.655</v>
+        <v>3.54</v>
       </c>
       <c r="V3">
-        <v>0.6421568627450981</v>
+        <v>0.735966735966736</v>
       </c>
       <c r="W3">
-        <v>1.391752577319588</v>
+        <v>-1.684981684981685</v>
       </c>
       <c r="X3">
-        <v>0.08326957853732188</v>
+        <v>0.3733337216043537</v>
       </c>
       <c r="Y3">
-        <v>1.308482998782266</v>
+        <v>-2.058315406586039</v>
       </c>
       <c r="Z3">
-        <v>-1.513698630136986</v>
+        <v>2.741935483870967</v>
       </c>
       <c r="AA3">
-        <v>3.25</v>
+        <v>-0.2792869269949066</v>
       </c>
       <c r="AB3">
-        <v>0.08326957853732188</v>
+        <v>0.06879024923852597</v>
       </c>
       <c r="AC3">
-        <v>3.166730421462677</v>
+        <v>-0.3480771762334326</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="AG3">
-        <v>-0.655</v>
+        <v>26.56</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.8622171297622457</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1.052079692415239</v>
       </c>
       <c r="AJ3">
-        <v>-1.794520547945206</v>
+        <v>0.846668791839337</v>
       </c>
       <c r="AK3">
-        <v>-4.093750000000002</v>
+        <v>1.059433585959314</v>
       </c>
       <c r="AL3">
-        <v>0.056</v>
+        <v>1.75</v>
       </c>
       <c r="AM3">
-        <v>0.056</v>
+        <v>1.416</v>
+      </c>
+      <c r="AN3">
+        <v>-6.244813278008299</v>
       </c>
       <c r="AO3">
-        <v>-16.94642857142857</v>
+        <v>-1.88</v>
+      </c>
+      <c r="AP3">
+        <v>-5.510373443983402</v>
       </c>
       <c r="AQ3">
-        <v>-16.94642857142857</v>
+        <v>-2.323446327683616</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lauritz.com Group A/S (OM:LAUR)</t>
+          <t>Happy Helper A/S (CPSE:HAPPY)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,35 +846,32 @@
           <t>Retail (Online)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.135</v>
-      </c>
       <c r="G4">
-        <v>-0.105952380952381</v>
+        <v>-0.3426086956521739</v>
       </c>
       <c r="H4">
-        <v>-0.1571428571428571</v>
+        <v>-0.8695652173913044</v>
       </c>
       <c r="I4">
-        <v>-0.1675595238095238</v>
+        <v>-0.9130434782608696</v>
       </c>
       <c r="J4">
-        <v>-0.1675595238095238</v>
+        <v>-0.9130434782608696</v>
       </c>
       <c r="K4">
-        <v>-2.85</v>
+        <v>-0.864</v>
       </c>
       <c r="L4">
-        <v>-0.08482142857142858</v>
+        <v>-0.751304347826087</v>
       </c>
       <c r="M4">
-        <v>0.08799999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01884368308351178</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.03087719298245614</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -880,314 +883,76 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.35</v>
+        <v>0.85</v>
       </c>
       <c r="V4">
-        <v>0.5032119914346895</v>
+        <v>0.104679802955665</v>
       </c>
       <c r="W4">
-        <v>-0.393646408839779</v>
+        <v>-0.3063829787234043</v>
       </c>
       <c r="X4">
-        <v>0.380760957767148</v>
+        <v>0.07440399637139676</v>
       </c>
       <c r="Y4">
-        <v>-0.774407366606927</v>
+        <v>-0.380786975094801</v>
       </c>
       <c r="Z4">
-        <v>1.571562207670721</v>
+        <v>0.606220347917765</v>
       </c>
       <c r="AA4">
-        <v>-0.2633302151543498</v>
+        <v>-0.5535055350553507</v>
       </c>
       <c r="AB4">
-        <v>0.08594999916145922</v>
+        <v>0.0710252092084238</v>
       </c>
       <c r="AC4">
-        <v>-0.3492802143158091</v>
+        <v>-0.6245307442637745</v>
       </c>
       <c r="AD4">
-        <v>27.8</v>
+        <v>0.539</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>27.8</v>
+        <v>0.539</v>
       </c>
       <c r="AG4">
-        <v>25.45</v>
+        <v>-0.3109999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.8561749307052664</v>
+        <v>0.06224737267582863</v>
       </c>
       <c r="AI4">
-        <v>0.9105797576154602</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="AJ4">
-        <v>0.8449535192563081</v>
+        <v>-0.03982584197720578</v>
       </c>
       <c r="AK4">
-        <v>0.9031227821149751</v>
+        <v>-0.1646373742721016</v>
       </c>
       <c r="AL4">
-        <v>2.44</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AM4">
-        <v>2.13</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AN4">
-        <v>-4.136904761904762</v>
+        <v>-0.539</v>
       </c>
       <c r="AO4">
-        <v>-2.307377049180328</v>
+        <v>-15.21739130434783</v>
       </c>
       <c r="AP4">
-        <v>-3.787202380952381</v>
+        <v>0.3109999999999999</v>
       </c>
       <c r="AQ4">
-        <v>-2.643192488262911</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Happy Helper A/S (CPSE:HAPPY)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Retail (Online)</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>-1.404494382022472</v>
-      </c>
-      <c r="H5">
-        <v>-1.404494382022472</v>
-      </c>
-      <c r="I5">
-        <v>-1.426966292134831</v>
-      </c>
-      <c r="J5">
-        <v>-1.426966292134831</v>
-      </c>
-      <c r="K5">
-        <v>-1.05</v>
-      </c>
-      <c r="L5">
-        <v>-1.179775280898876</v>
-      </c>
-      <c r="M5">
-        <v>-0</v>
-      </c>
-      <c r="N5">
-        <v>-0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1.37</v>
-      </c>
-      <c r="V5">
-        <v>0.2333901192504259</v>
-      </c>
-      <c r="W5">
-        <v>-0.2573529411764706</v>
-      </c>
-      <c r="X5">
-        <v>0.08729646615326048</v>
-      </c>
-      <c r="Y5">
-        <v>-0.3446494073297311</v>
-      </c>
-      <c r="Z5">
-        <v>0.6289752650176677</v>
-      </c>
-      <c r="AA5">
-        <v>-0.8975265017667842</v>
-      </c>
-      <c r="AB5">
-        <v>0.08299700083866295</v>
-      </c>
-      <c r="AC5">
-        <v>-0.9805235026054471</v>
-      </c>
-      <c r="AD5">
-        <v>0.473</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.473</v>
-      </c>
-      <c r="AG5">
-        <v>-0.8970000000000001</v>
-      </c>
-      <c r="AH5">
-        <v>0.07457039255872615</v>
-      </c>
-      <c r="AI5">
-        <v>0.1436380200425144</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.1803740197064147</v>
-      </c>
-      <c r="AK5">
-        <v>-0.466458658346334</v>
-      </c>
-      <c r="AL5">
-        <v>0.063</v>
-      </c>
-      <c r="AM5">
-        <v>0.063</v>
-      </c>
-      <c r="AN5">
-        <v>-0.3784</v>
-      </c>
-      <c r="AO5">
-        <v>-20.15873015873016</v>
-      </c>
-      <c r="AP5">
-        <v>0.7176000000000001</v>
-      </c>
-      <c r="AQ5">
-        <v>-20.15873015873016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nustay A/S (NGM:NUSTAY)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Retail (Online)</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>-2.72</v>
-      </c>
-      <c r="H6">
-        <v>-2.72</v>
-      </c>
-      <c r="I6">
-        <v>-5.06</v>
-      </c>
-      <c r="J6">
-        <v>-5.06</v>
-      </c>
-      <c r="K6">
-        <v>-4</v>
-      </c>
-      <c r="L6">
-        <v>-4</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.094</v>
-      </c>
-      <c r="V6">
-        <v>0.007460317460317461</v>
-      </c>
-      <c r="X6">
-        <v>0.08925855866440582</v>
-      </c>
-      <c r="AB6">
-        <v>0.08287840107523128</v>
-      </c>
-      <c r="AD6">
-        <v>1.51</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>1.51</v>
-      </c>
-      <c r="AG6">
-        <v>1.416</v>
-      </c>
-      <c r="AH6">
-        <v>0.1070163004961021</v>
-      </c>
-      <c r="AI6">
-        <v>0.4674922600619195</v>
-      </c>
-      <c r="AJ6">
-        <v>0.101027397260274</v>
-      </c>
-      <c r="AK6">
-        <v>0.4515306122448979</v>
-      </c>
-      <c r="AL6">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="AM6">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>-0.3044354838709677</v>
-      </c>
-      <c r="AO6">
-        <v>-70.27777777777777</v>
-      </c>
-      <c r="AP6">
-        <v>-0.2854838709677419</v>
-      </c>
-      <c r="AQ6">
-        <v>-70.27777777777777</v>
+        <v>-15.21739130434783</v>
       </c>
     </row>
   </sheetData>
